--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4777.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4777.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4777</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jofra Chioke Archer</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>03/05/2019</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -588,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -596,7 +658,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -788,7 +849,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>14/06/2019</t>
@@ -796,7 +856,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -836,7 +896,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>18/06/2019</t>
@@ -844,7 +903,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1092,7 +1151,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>11/07/2019</t>
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1256,7 +1314,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1296,7 +1354,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>16/09/2020</t>
@@ -1304,7 +1361,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1356,7 +1413,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1396,7 +1453,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>01/02/2023</t>
@@ -1404,7 +1460,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1444,7 +1500,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>01/03/2023</t>
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1504,7 +1559,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1543,7 +1598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1565,7 +1620,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1602,7 +1657,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1639,7 +1694,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1676,7 +1731,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1713,7 +1768,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1750,7 +1805,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1787,7 +1842,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1824,7 +1879,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1861,7 +1916,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1898,7 +1953,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1935,7 +1990,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1972,7 +2027,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2009,7 +2064,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2046,7 +2101,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2083,7 +2138,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2120,7 +2175,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2157,7 +2212,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2194,7 +2249,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2231,7 +2286,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2268,7 +2323,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2305,7 +2360,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2342,7 +2397,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2370,6 +2425,463 @@
           <t>3/35</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4287</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4303</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.45%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4777.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4777.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2483,15 +2484,398 @@
           <t>4287</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4303</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.45%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4287</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2499,15 +2883,14 @@
           <t>4297</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2519,13 +2902,6 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2535,13 +2911,6 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2549,15 +2918,14 @@
           <t>4314</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2567,15 +2935,14 @@
           <t>4321</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2587,13 +2954,6 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2601,27 +2961,14 @@
           <t>4331</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.42%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2631,27 +2978,14 @@
           <t>4336</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.45%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2661,25 +2995,12 @@
           <t>4342</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2689,13 +3010,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2703,15 +3017,14 @@
           <t>4354</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -2723,13 +3036,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2737,27 +3043,14 @@
           <t>4429</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>10</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.91%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2767,27 +3060,14 @@
           <t>4430</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>11</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.60%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2797,15 +3077,14 @@
           <t>4431</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2815,23 +3094,14 @@
           <t>4698</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2841,15 +3111,14 @@
           <t>4700</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -2859,15 +3128,14 @@
           <t>4711</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -2877,11 +3145,16 @@
           <t>4717</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4777.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4777.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -617,7 +616,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2484,6 +2483,10 @@
           <t>4287</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2499,6 +2502,9 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2511,6 +2517,10 @@
           <t>4303</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2523,6 +2533,10 @@
           <t>4308</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2538,6 +2552,9 @@
       <c r="B6" t="n">
         <v>9</v>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2553,6 +2570,9 @@
       <c r="B7" t="n">
         <v>9</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2565,6 +2585,10 @@
           <t>4326</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2650,6 +2674,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2662,6 +2687,10 @@
           <t>4346</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2677,6 +2706,9 @@
       <c r="B13" t="n">
         <v>10</v>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2689,6 +2721,10 @@
           <t>4355</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2764,6 +2800,9 @@
       <c r="B17" t="n">
         <v>10</v>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2789,6 +2828,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2804,6 +2844,9 @@
       <c r="B19" t="n">
         <v>10</v>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2819,6 +2862,9 @@
       <c r="B20" t="n">
         <v>10</v>
       </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2831,330 +2877,11 @@
           <t>4717</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4287</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4303</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4314</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4326</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4336</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4777.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4777.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>03/05/2019</t>
@@ -604,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -651,6 +652,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -802,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -849,6 +852,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>14/06/2019</t>
@@ -896,6 +900,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>18/06/2019</t>
@@ -1151,6 +1156,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>11/07/2019</t>
@@ -1354,6 +1360,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>16/09/2020</t>
@@ -1453,6 +1460,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>01/02/2023</t>
@@ -1500,6 +1508,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>01/03/2023</t>
@@ -2429,461 +2438,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4287</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4303</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4314</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4326</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.42%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4336</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.45%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.91%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>11</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.60%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>